--- a/roupas.xlsx
+++ b/roupas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Python Projects\Controle Estoque Kary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8222A5-2F2C-465E-9DAA-881A920D45E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D59EB6-96F7-48DF-9BEB-1A4898E9DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>cod</t>
   </si>
@@ -55,13 +55,13 @@
     <t>data_saida</t>
   </si>
   <si>
-    <t>Jaqueta Bomber Cgc</t>
+    <t>Jaqueta Jeans Bomber Cgc</t>
   </si>
   <si>
     <t>Jaqueta</t>
   </si>
   <si>
-    <t>m</t>
+    <t>M</t>
   </si>
   <si>
     <t>Unissex</t>
@@ -70,7 +70,7 @@
     <t>Legal</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3 4</t>
+    <t>Marrom Caramelo</t>
   </si>
   <si>
     <t>2023-01-27</t>
@@ -82,16 +82,16 @@
     <t>kimono</t>
   </si>
   <si>
-    <t>p</t>
+    <t>P</t>
   </si>
   <si>
     <t>Feminino</t>
   </si>
   <si>
-    <t>bonita</t>
-  </si>
-  <si>
-    <t>1, 5, 7</t>
+    <t>Bonita</t>
+  </si>
+  <si>
+    <t>Preto Caramelo</t>
   </si>
   <si>
     <t>Camisa Social Linho Cru</t>
@@ -109,7 +109,7 @@
     <t>Calvin Klein</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5</t>
+    <t>Caramelo</t>
   </si>
   <si>
     <t>Peça Legal</t>
@@ -118,7 +118,7 @@
     <t>Blusa</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3</t>
+    <t>Marrom</t>
   </si>
   <si>
     <t>Tenis All Star Cano Alto</t>
@@ -133,7 +133,106 @@
     <t>Converse</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0 1</t>
+    <t>Preto Branco</t>
+  </si>
+  <si>
+    <t>Jaqueta Tactel</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Tactel</t>
+  </si>
+  <si>
+    <t>Bege Creme</t>
+  </si>
+  <si>
+    <t>Jaqueta Couro Motoqueiro</t>
+  </si>
+  <si>
+    <t>Aquela</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>Camisa Havaiana Floral</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>Azul-Claro Laranja-Claro Vermelho</t>
+  </si>
+  <si>
+    <t>Bermuda Saruel</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Saruel</t>
+  </si>
+  <si>
+    <t>Violeta</t>
+  </si>
+  <si>
+    <t>Mom Jeans Cgc</t>
+  </si>
+  <si>
+    <t>Calça</t>
+  </si>
+  <si>
+    <t>Colcci</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>Body Florido Costas Abertas</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Farm</t>
+  </si>
+  <si>
+    <t>Branco Caramelo Verde-Água</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>Sandália Couro Gladiador</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Grendene</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caramelo</t>
+  </si>
+  <si>
+    <t>Blusinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P 33 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caramelo Bordo</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Azul-Jeans Azul</t>
   </si>
 </sst>
 </file>
@@ -496,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +813,286 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>77030</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13495</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>95501</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>51471</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25973</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>85545</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>77800</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5707</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
